--- a/paper_six_puzzle_experiment_output/Easy level (No.1)_runs.xlsx
+++ b/paper_six_puzzle_experiment_output/Easy level (No.1)_runs.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZAyyubi\Desktop\LSGA\paper_six_puzzle_experiment_output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -28,8 +33,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +97,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -138,7 +151,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -170,9 +183,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -204,6 +218,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -379,14 +394,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -397,7 +414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -408,7 +425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -419,7 +436,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -430,7 +447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -441,7 +458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -452,7 +469,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -463,7 +480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -474,7 +491,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -485,7 +502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -496,7 +513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -507,7 +524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -515,10 +532,10 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -529,7 +546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -540,7 +557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -551,7 +568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -562,7 +579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -573,7 +590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -584,7 +601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -595,7 +612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -606,7 +623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -617,7 +634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -628,7 +645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -639,7 +656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -650,7 +667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -661,7 +678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -672,7 +689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -683,7 +700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -694,7 +711,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -705,7 +722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -716,7 +733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -727,7 +744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -738,7 +755,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -749,7 +766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -760,7 +777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -771,7 +788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -782,7 +799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -793,7 +810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -804,7 +821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -815,7 +832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -826,7 +843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -837,7 +854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -848,7 +865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -859,7 +876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -870,7 +887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -881,7 +898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -892,7 +909,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -903,7 +920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -914,7 +931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -925,7 +942,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -936,7 +953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -947,7 +964,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -958,7 +975,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -969,7 +986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -980,7 +997,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -991,7 +1008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1002,7 +1019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1013,7 +1030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1024,7 +1041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1035,7 +1052,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1046,7 +1063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1057,7 +1074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1068,7 +1085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1079,7 +1096,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1090,7 +1107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1101,7 +1118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1112,7 +1129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1123,7 +1140,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1134,7 +1151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1145,7 +1162,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1156,7 +1173,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1167,7 +1184,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1178,7 +1195,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1189,7 +1206,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1200,7 +1217,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -1211,7 +1228,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -1222,7 +1239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -1233,7 +1250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -1244,7 +1261,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -1255,7 +1272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -1266,7 +1283,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -1277,7 +1294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -1288,7 +1305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -1299,7 +1316,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -1310,7 +1327,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -1321,7 +1338,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -1332,7 +1349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -1343,7 +1360,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -1354,7 +1371,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -1365,7 +1382,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -1376,7 +1393,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -1387,7 +1404,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -1398,7 +1415,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -1409,7 +1426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -1420,7 +1437,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -1431,7 +1448,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -1442,7 +1459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -1453,7 +1470,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -1464,7 +1481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -1475,7 +1492,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -1486,7 +1503,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
